--- a/docs/ValueSet-cdex-attachment-codes.xlsx
+++ b/docs/ValueSet-cdex-attachment-codes.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T10:34:41-07:00</t>
+    <t>2022-08-23T10:45:47-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cdex-attachment-codes.xlsx
+++ b/docs/ValueSet-cdex-attachment-codes.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T10:45:47-07:00</t>
+    <t>2022-08-23T10:54:55-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
